--- a/2ИСИП-822_ТерВер.xlsx
+++ b/2ИСИП-822_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>2ИСИП-822: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Сумма</t>
+  </si>
+  <si>
+    <t>изм</t>
   </si>
 </sst>
 </file>
@@ -555,13 +558,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -571,12 +574,12 @@
     <col min="3" max="10" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
@@ -605,7 +608,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1">
         <v>1</v>
       </c>
@@ -631,7 +634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -670,7 +673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -709,7 +712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -748,7 +751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -787,7 +790,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -826,7 +829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -846,26 +849,29 @@
         <v>5</v>
       </c>
       <c r="G9" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J9" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M9" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -904,7 +910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -943,7 +949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -982,7 +988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1060,7 +1066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1099,7 +1105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>

--- a/2ИСИП-822_ТерВер.xlsx
+++ b/2ИСИП-822_ТерВер.xlsx
@@ -561,10 +561,10 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O26" sqref="O26"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -927,26 +927,29 @@
         <v>5</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M11" s="8">
         <v>3</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2ИСИП-822_ТерВер.xlsx
+++ b/2ИСИП-822_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>2ИСИП-822: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>изм</t>
+  </si>
+  <si>
+    <t>BPV</t>
   </si>
 </sst>
 </file>
@@ -561,10 +564,10 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1147,7 +1150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1225,7 +1228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1245,26 +1248,29 @@
         <v>5</v>
       </c>
       <c r="G19" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H19" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J19" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M19" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1303,7 +1309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1342,7 +1348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1381,7 +1387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1401,26 +1407,29 @@
         <v>5</v>
       </c>
       <c r="G23" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J23" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L23">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M23" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1459,7 +1468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1498,7 +1507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1537,7 +1546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1576,7 +1585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1615,7 +1624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1654,7 +1663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1693,7 +1702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1732,7 +1741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>

--- a/2ИСИП-822_ТерВер.xlsx
+++ b/2ИСИП-822_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>2ИСИП-822: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>BPV</t>
+  </si>
+  <si>
+    <t>HJHFJKR</t>
   </si>
 </sst>
 </file>
@@ -564,10 +567,10 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O24" sqref="O24"/>
+      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1644,23 +1647,26 @@
         <v>5</v>
       </c>
       <c r="G29" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H29" s="5">
         <v>5</v>
       </c>
       <c r="I29" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J29" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M29" s="8">
         <v>4</v>
+      </c>
+      <c r="O29" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2ИСИП-822_ТерВер.xlsx
+++ b/2ИСИП-822_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>2ИСИП-822: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -570,7 +570,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -816,23 +816,26 @@
         <v>5</v>
       </c>
       <c r="G8" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H8" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M8" s="8">
         <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2ИСИП-822_ТерВер.xlsx
+++ b/2ИСИП-822_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>2ИСИП-822: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>HJHFJKR</t>
+  </si>
+  <si>
+    <t>аываыв</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O13" sqref="O13"/>
+      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1059,23 +1062,26 @@
         <v>5</v>
       </c>
       <c r="G14" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H14" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J14" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M14" s="8">
         <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2ИСИП-822_ТерВер.xlsx
+++ b/2ИСИП-822_ТерВер.xlsx
@@ -573,7 +573,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -618,30 +618,14 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -1698,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="G30" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H30" s="6">
         <v>0</v>
@@ -1711,7 +1695,7 @@
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M30" s="8">
         <v>3</v>

--- a/2ИСИП-822_ТерВер.xlsx
+++ b/2ИСИП-822_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>2ИСИП-822: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>аываыв</t>
+  </si>
+  <si>
+    <t>Расставить двойки</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -618,6 +621,9 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>

--- a/2ИСИП-822_ТерВер.xlsx
+++ b/2ИСИП-822_ТерВер.xlsx
@@ -170,7 +170,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,6 +180,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -266,6 +272,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -576,7 +592,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -624,11 +640,21 @@
       <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="1"/>
@@ -653,20 +679,20 @@
         <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <f>SUM(C4:J4)</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M4" s="8">
         <v>3</v>
@@ -770,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="5">
         <v>5</v>
@@ -783,7 +809,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M7" s="8">
         <v>4</v>
@@ -797,7 +823,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4">
         <v>5</v>
@@ -822,7 +848,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M8" s="8">
         <v>3</v>
@@ -893,20 +919,20 @@
         <v>5</v>
       </c>
       <c r="G10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M10" s="8">
         <v>3</v>
@@ -1013,20 +1039,20 @@
         <v>5</v>
       </c>
       <c r="G13" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M13" s="8">
         <v>3</v>
@@ -1094,20 +1120,20 @@
         <v>5</v>
       </c>
       <c r="G15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M15" s="8">
         <v>3</v>
@@ -1178,14 +1204,14 @@
         <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M17" s="8">
         <v>4</v>
@@ -1211,20 +1237,20 @@
         <v>5</v>
       </c>
       <c r="G18" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M18" s="8">
         <v>3</v>
@@ -1331,20 +1357,20 @@
         <v>5</v>
       </c>
       <c r="G21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M21" s="8">
         <v>3</v>
@@ -1439,32 +1465,33 @@
         <v>21</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
-        <v>0</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2</v>
+      </c>
+      <c r="F24" s="9">
+        <v>2</v>
+      </c>
+      <c r="G24" s="9">
+        <v>2</v>
+      </c>
+      <c r="H24" s="10">
+        <v>2</v>
+      </c>
+      <c r="I24" s="11">
+        <v>2</v>
+      </c>
+      <c r="J24" s="9">
+        <v>2</v>
+      </c>
+      <c r="K24" s="12"/>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M24" s="8">
         <v>3</v>
@@ -1490,20 +1517,20 @@
         <v>5</v>
       </c>
       <c r="G25" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M25" s="8">
         <v>3</v>
@@ -1676,7 +1703,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D30" s="4">
         <v>5</v>
@@ -1691,17 +1718,17 @@
         <v>5</v>
       </c>
       <c r="H30" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M30" s="8">
         <v>3</v>
@@ -1775,11 +1802,11 @@
         <v>5</v>
       </c>
       <c r="J32" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M32" s="8">
         <v>4</v>
@@ -1814,11 +1841,11 @@
         <v>5</v>
       </c>
       <c r="J33" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M33" s="8">
         <v>4</v>
@@ -1853,11 +1880,11 @@
         <v>5</v>
       </c>
       <c r="J34" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M34" s="8">
         <v>4</v>
@@ -1892,11 +1919,11 @@
         <v>5</v>
       </c>
       <c r="J35" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L35">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M35" s="8">
         <v>4</v>
@@ -1931,11 +1958,11 @@
         <v>5</v>
       </c>
       <c r="J36" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L36">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M36" s="8">
         <v>4</v>
@@ -1970,11 +1997,11 @@
         <v>5</v>
       </c>
       <c r="J37" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M37" s="8">
         <v>4</v>
@@ -2009,11 +2036,11 @@
         <v>5</v>
       </c>
       <c r="J38" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L38">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M38" s="8">
         <v>4</v>
@@ -2048,11 +2075,11 @@
         <v>5</v>
       </c>
       <c r="J39" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M39" s="8">
         <v>4</v>
@@ -2087,11 +2114,11 @@
         <v>5</v>
       </c>
       <c r="J40" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M40" s="8">
         <v>4</v>
@@ -2126,11 +2153,11 @@
         <v>5</v>
       </c>
       <c r="J41" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L41">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M41" s="8">
         <v>4</v>
@@ -2165,11 +2192,11 @@
         <v>5</v>
       </c>
       <c r="J42" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L42">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M42" s="8">
         <v>4</v>
@@ -2204,11 +2231,11 @@
         <v>5</v>
       </c>
       <c r="J43" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L43">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M43" s="8">
         <v>4</v>
@@ -2243,11 +2270,11 @@
         <v>5</v>
       </c>
       <c r="J44" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M44" s="8">
         <v>4</v>
@@ -2282,11 +2309,11 @@
         <v>5</v>
       </c>
       <c r="J45" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M45" s="8">
         <v>4</v>
@@ -2321,11 +2348,11 @@
         <v>5</v>
       </c>
       <c r="J46" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L46">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M46" s="8">
         <v>4</v>
@@ -2360,11 +2387,11 @@
         <v>5</v>
       </c>
       <c r="J47" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L47">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M47" s="8">
         <v>4</v>
@@ -2399,11 +2426,11 @@
         <v>5</v>
       </c>
       <c r="J48" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L48">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M48" s="8">
         <v>4</v>
@@ -2438,11 +2465,11 @@
         <v>5</v>
       </c>
       <c r="J49" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L49">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M49" s="8">
         <v>4</v>
@@ -2477,11 +2504,11 @@
         <v>5</v>
       </c>
       <c r="J50" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L50">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M50" s="8">
         <v>4</v>
@@ -2492,7 +2519,7 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <conditionalFormatting sqref="C4:J50 M4:M51">
+  <conditionalFormatting sqref="C4:J23 M4:M51 C25:J50 C24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>

--- a/2ИСИП-822_ТерВер.xlsx
+++ b/2ИСИП-822_ТерВер.xlsx
@@ -589,10 +589,10 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -655,9 +655,15 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="1"/>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">

--- a/2ИСИП-822_ТерВер.xlsx
+++ b/2ИСИП-822_ТерВер.xlsx
@@ -580,10 +580,10 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6:O48"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -913,23 +913,23 @@
         <v>5</v>
       </c>
       <c r="G10" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H10" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J10" s="4">
         <v>2</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M10" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1342,10 +1342,10 @@
         <v>5</v>
       </c>
       <c r="G21" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H21" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I21" s="7">
         <v>2</v>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M21" s="8">
         <v>4</v>

--- a/2ИСИП-822_ТерВер.xlsx
+++ b/2ИСИП-822_ТерВер.xlsx
@@ -580,10 +580,10 @@
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1358,7 +1358,7 @@
         <v>34</v>
       </c>
       <c r="M21" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/2ИСИП-822_ТерВер.xlsx
+++ b/2ИСИП-822_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>2ИСИП-822: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -577,13 +577,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -652,9 +652,7 @@
       <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -2493,12 +2491,580 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="13" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="M51" s="8"/>
-    </row>
+    <row r="51" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>29</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="4">
+        <v>5</v>
+      </c>
+      <c r="D51" s="4">
+        <v>5</v>
+      </c>
+      <c r="E51" s="4">
+        <v>5</v>
+      </c>
+      <c r="F51" s="4">
+        <v>5</v>
+      </c>
+      <c r="G51" s="4">
+        <v>5</v>
+      </c>
+      <c r="H51" s="5">
+        <v>5</v>
+      </c>
+      <c r="I51" s="5">
+        <v>5</v>
+      </c>
+      <c r="J51" s="4">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <f t="shared" ref="L51:L64" si="1">SUM(C51:J51)</f>
+        <v>37</v>
+      </c>
+      <c r="M51" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>29</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="4">
+        <v>5</v>
+      </c>
+      <c r="D52" s="4">
+        <v>5</v>
+      </c>
+      <c r="E52" s="4">
+        <v>5</v>
+      </c>
+      <c r="F52" s="4">
+        <v>5</v>
+      </c>
+      <c r="G52" s="4">
+        <v>5</v>
+      </c>
+      <c r="H52" s="5">
+        <v>5</v>
+      </c>
+      <c r="I52" s="5">
+        <v>5</v>
+      </c>
+      <c r="J52" s="4">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M52" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>29</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="4">
+        <v>5</v>
+      </c>
+      <c r="D53" s="4">
+        <v>5</v>
+      </c>
+      <c r="E53" s="4">
+        <v>5</v>
+      </c>
+      <c r="F53" s="4">
+        <v>5</v>
+      </c>
+      <c r="G53" s="4">
+        <v>5</v>
+      </c>
+      <c r="H53" s="5">
+        <v>5</v>
+      </c>
+      <c r="I53" s="5">
+        <v>5</v>
+      </c>
+      <c r="J53" s="4">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M53" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>29</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" s="4">
+        <v>5</v>
+      </c>
+      <c r="D54" s="4">
+        <v>5</v>
+      </c>
+      <c r="E54" s="4">
+        <v>5</v>
+      </c>
+      <c r="F54" s="4">
+        <v>5</v>
+      </c>
+      <c r="G54" s="4">
+        <v>5</v>
+      </c>
+      <c r="H54" s="5">
+        <v>5</v>
+      </c>
+      <c r="I54" s="5">
+        <v>5</v>
+      </c>
+      <c r="J54" s="4">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M54" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>29</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="4">
+        <v>5</v>
+      </c>
+      <c r="D55" s="4">
+        <v>5</v>
+      </c>
+      <c r="E55" s="4">
+        <v>5</v>
+      </c>
+      <c r="F55" s="4">
+        <v>5</v>
+      </c>
+      <c r="G55" s="4">
+        <v>5</v>
+      </c>
+      <c r="H55" s="5">
+        <v>5</v>
+      </c>
+      <c r="I55" s="5">
+        <v>5</v>
+      </c>
+      <c r="J55" s="4">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M55" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>29</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="4">
+        <v>5</v>
+      </c>
+      <c r="D56" s="4">
+        <v>5</v>
+      </c>
+      <c r="E56" s="4">
+        <v>5</v>
+      </c>
+      <c r="F56" s="4">
+        <v>5</v>
+      </c>
+      <c r="G56" s="4">
+        <v>5</v>
+      </c>
+      <c r="H56" s="5">
+        <v>5</v>
+      </c>
+      <c r="I56" s="5">
+        <v>5</v>
+      </c>
+      <c r="J56" s="4">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M56" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>29</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="4">
+        <v>5</v>
+      </c>
+      <c r="D57" s="4">
+        <v>5</v>
+      </c>
+      <c r="E57" s="4">
+        <v>5</v>
+      </c>
+      <c r="F57" s="4">
+        <v>5</v>
+      </c>
+      <c r="G57" s="4">
+        <v>5</v>
+      </c>
+      <c r="H57" s="5">
+        <v>5</v>
+      </c>
+      <c r="I57" s="5">
+        <v>5</v>
+      </c>
+      <c r="J57" s="4">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M57" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>29</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="4">
+        <v>5</v>
+      </c>
+      <c r="D58" s="4">
+        <v>5</v>
+      </c>
+      <c r="E58" s="4">
+        <v>5</v>
+      </c>
+      <c r="F58" s="4">
+        <v>5</v>
+      </c>
+      <c r="G58" s="4">
+        <v>5</v>
+      </c>
+      <c r="H58" s="5">
+        <v>5</v>
+      </c>
+      <c r="I58" s="5">
+        <v>5</v>
+      </c>
+      <c r="J58" s="4">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M58" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>29</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="4">
+        <v>5</v>
+      </c>
+      <c r="D59" s="4">
+        <v>5</v>
+      </c>
+      <c r="E59" s="4">
+        <v>5</v>
+      </c>
+      <c r="F59" s="4">
+        <v>5</v>
+      </c>
+      <c r="G59" s="4">
+        <v>5</v>
+      </c>
+      <c r="H59" s="5">
+        <v>5</v>
+      </c>
+      <c r="I59" s="5">
+        <v>5</v>
+      </c>
+      <c r="J59" s="4">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M59" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>29</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="4">
+        <v>5</v>
+      </c>
+      <c r="D60" s="4">
+        <v>5</v>
+      </c>
+      <c r="E60" s="4">
+        <v>5</v>
+      </c>
+      <c r="F60" s="4">
+        <v>5</v>
+      </c>
+      <c r="G60" s="4">
+        <v>5</v>
+      </c>
+      <c r="H60" s="5">
+        <v>5</v>
+      </c>
+      <c r="I60" s="5">
+        <v>5</v>
+      </c>
+      <c r="J60" s="4">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M60" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>29</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="4">
+        <v>5</v>
+      </c>
+      <c r="D61" s="4">
+        <v>5</v>
+      </c>
+      <c r="E61" s="4">
+        <v>5</v>
+      </c>
+      <c r="F61" s="4">
+        <v>5</v>
+      </c>
+      <c r="G61" s="4">
+        <v>5</v>
+      </c>
+      <c r="H61" s="5">
+        <v>5</v>
+      </c>
+      <c r="I61" s="5">
+        <v>5</v>
+      </c>
+      <c r="J61" s="4">
+        <v>2</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M61" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>29</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" s="4">
+        <v>5</v>
+      </c>
+      <c r="D62" s="4">
+        <v>5</v>
+      </c>
+      <c r="E62" s="4">
+        <v>5</v>
+      </c>
+      <c r="F62" s="4">
+        <v>5</v>
+      </c>
+      <c r="G62" s="4">
+        <v>5</v>
+      </c>
+      <c r="H62" s="5">
+        <v>5</v>
+      </c>
+      <c r="I62" s="5">
+        <v>5</v>
+      </c>
+      <c r="J62" s="4">
+        <v>2</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M62" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>29</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="4">
+        <v>5</v>
+      </c>
+      <c r="D63" s="4">
+        <v>5</v>
+      </c>
+      <c r="E63" s="4">
+        <v>5</v>
+      </c>
+      <c r="F63" s="4">
+        <v>5</v>
+      </c>
+      <c r="G63" s="4">
+        <v>5</v>
+      </c>
+      <c r="H63" s="5">
+        <v>5</v>
+      </c>
+      <c r="I63" s="5">
+        <v>5</v>
+      </c>
+      <c r="J63" s="4">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M63" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>29</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="4">
+        <v>5</v>
+      </c>
+      <c r="D64" s="4">
+        <v>5</v>
+      </c>
+      <c r="E64" s="4">
+        <v>5</v>
+      </c>
+      <c r="F64" s="4">
+        <v>5</v>
+      </c>
+      <c r="G64" s="4">
+        <v>5</v>
+      </c>
+      <c r="H64" s="5">
+        <v>5</v>
+      </c>
+      <c r="I64" s="5">
+        <v>5</v>
+      </c>
+      <c r="J64" s="4">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M64" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <conditionalFormatting sqref="C4:J23 M4:M51 C25:J50 C24">
+  <conditionalFormatting sqref="C4:J23 M4:M50 C25:J50 C24">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L50">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M51:M64 C51:J64">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2510,7 +3076,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L50">
+  <conditionalFormatting sqref="L51:L64">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/2ИСИП-822_ТерВер.xlsx
+++ b/2ИСИП-822_ТерВер.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>2ИСИП-822: Теория вероятностей и математическая статистика (Сибирев И. В.) - II семестр</t>
   </si>
@@ -141,7 +141,10 @@
     <t>Расставить двойки</t>
   </si>
   <si>
-    <t>dsfdsgdfgdfgdfgdfgd</t>
+    <t>ТК_оригинал</t>
+  </si>
+  <si>
+    <t>на момент выгрузки в элжуре</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -273,6 +276,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -577,13 +583,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -593,12 +599,12 @@
     <col min="3" max="10" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
@@ -626,8 +632,14 @@
       <c r="L2" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>39</v>
       </c>
@@ -654,7 +666,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -692,11 +704,15 @@
       <c r="M4" s="8">
         <v>5</v>
       </c>
-      <c r="O4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O4" s="13">
+        <v>5</v>
+      </c>
+      <c r="P4">
+        <f>O4-M4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -734,8 +750,15 @@
       <c r="M5" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="13">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P32" si="1">O5-M5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -773,8 +796,15 @@
       <c r="M6" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="13">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -812,8 +842,15 @@
       <c r="M7" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O7" s="13">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -851,8 +888,15 @@
       <c r="M8" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="13">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -890,8 +934,15 @@
       <c r="M9" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O9" s="13">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -929,8 +980,15 @@
       <c r="M10" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O10" s="13">
+        <v>5</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -968,8 +1026,15 @@
       <c r="M11" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="13">
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1007,8 +1072,15 @@
       <c r="M12" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O12" s="13">
+        <v>5</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1046,8 +1118,15 @@
       <c r="M13" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1085,8 +1164,15 @@
       <c r="M14" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O14" s="13">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1124,8 +1210,15 @@
       <c r="M15" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="13">
+        <v>4</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1163,8 +1256,15 @@
       <c r="M16" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O16" s="13">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1202,8 +1302,15 @@
       <c r="M17" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O17" s="13">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1241,8 +1348,15 @@
       <c r="M18" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O18" s="13">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1280,8 +1394,15 @@
       <c r="M19" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O19" s="13">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1319,8 +1440,15 @@
       <c r="M20" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="13">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1358,8 +1486,15 @@
       <c r="M21" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O21" s="13">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1397,8 +1532,15 @@
       <c r="M22" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O22" s="13">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1436,8 +1578,15 @@
       <c r="M23" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O23" s="13">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1476,8 +1625,13 @@
       <c r="M24" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O24" s="13"/>
+      <c r="P24">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1515,8 +1669,15 @@
       <c r="M25" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O25" s="13">
+        <v>4</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1554,8 +1715,15 @@
       <c r="M26" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O26" s="13">
+        <v>5</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1593,8 +1761,15 @@
       <c r="M27" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O27" s="13">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1632,8 +1807,15 @@
       <c r="M28" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O28" s="13">
+        <v>5</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1671,8 +1853,15 @@
       <c r="M29" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O29" s="13">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1710,8 +1899,15 @@
       <c r="M30" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O30" s="13">
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1749,8 +1945,15 @@
       <c r="M31" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O31" s="13">
+        <v>5</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1788,1254 +1991,438 @@
       <c r="M32" s="8">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>29</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="4">
-        <v>5</v>
-      </c>
-      <c r="D33" s="4">
-        <v>5</v>
-      </c>
-      <c r="E33" s="4">
-        <v>5</v>
-      </c>
-      <c r="F33" s="4">
-        <v>5</v>
-      </c>
-      <c r="G33" s="4">
-        <v>5</v>
-      </c>
-      <c r="H33" s="5">
-        <v>5</v>
-      </c>
-      <c r="I33" s="5">
-        <v>5</v>
-      </c>
-      <c r="J33" s="4">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M33" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>29</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="4">
-        <v>5</v>
-      </c>
-      <c r="D34" s="4">
-        <v>5</v>
-      </c>
-      <c r="E34" s="4">
-        <v>5</v>
-      </c>
-      <c r="F34" s="4">
-        <v>5</v>
-      </c>
-      <c r="G34" s="4">
-        <v>5</v>
-      </c>
-      <c r="H34" s="5">
-        <v>5</v>
-      </c>
-      <c r="I34" s="5">
-        <v>5</v>
-      </c>
-      <c r="J34" s="4">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M34" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>29</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="4">
-        <v>5</v>
-      </c>
-      <c r="D35" s="4">
-        <v>5</v>
-      </c>
-      <c r="E35" s="4">
-        <v>5</v>
-      </c>
-      <c r="F35" s="4">
-        <v>5</v>
-      </c>
-      <c r="G35" s="4">
-        <v>5</v>
-      </c>
-      <c r="H35" s="5">
-        <v>5</v>
-      </c>
-      <c r="I35" s="5">
-        <v>5</v>
-      </c>
-      <c r="J35" s="4">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M35" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>29</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="4">
-        <v>5</v>
-      </c>
-      <c r="D36" s="4">
-        <v>5</v>
-      </c>
-      <c r="E36" s="4">
-        <v>5</v>
-      </c>
-      <c r="F36" s="4">
-        <v>5</v>
-      </c>
-      <c r="G36" s="4">
-        <v>5</v>
-      </c>
-      <c r="H36" s="5">
-        <v>5</v>
-      </c>
-      <c r="I36" s="5">
-        <v>5</v>
-      </c>
-      <c r="J36" s="4">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M36" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>29</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="4">
-        <v>5</v>
-      </c>
-      <c r="D37" s="4">
-        <v>5</v>
-      </c>
-      <c r="E37" s="4">
-        <v>5</v>
-      </c>
-      <c r="F37" s="4">
-        <v>5</v>
-      </c>
-      <c r="G37" s="4">
-        <v>5</v>
-      </c>
-      <c r="H37" s="5">
-        <v>5</v>
-      </c>
-      <c r="I37" s="5">
-        <v>5</v>
-      </c>
-      <c r="J37" s="4">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M37" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>29</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="4">
-        <v>5</v>
-      </c>
-      <c r="D38" s="4">
-        <v>5</v>
-      </c>
-      <c r="E38" s="4">
-        <v>5</v>
-      </c>
-      <c r="F38" s="4">
-        <v>5</v>
-      </c>
-      <c r="G38" s="4">
-        <v>5</v>
-      </c>
-      <c r="H38" s="5">
-        <v>5</v>
-      </c>
-      <c r="I38" s="5">
-        <v>5</v>
-      </c>
-      <c r="J38" s="4">
-        <v>2</v>
-      </c>
-      <c r="L38">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M38" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>29</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="4">
-        <v>5</v>
-      </c>
-      <c r="D39" s="4">
-        <v>5</v>
-      </c>
-      <c r="E39" s="4">
-        <v>5</v>
-      </c>
-      <c r="F39" s="4">
-        <v>5</v>
-      </c>
-      <c r="G39" s="4">
-        <v>5</v>
-      </c>
-      <c r="H39" s="5">
-        <v>5</v>
-      </c>
-      <c r="I39" s="5">
-        <v>5</v>
-      </c>
-      <c r="J39" s="4">
-        <v>2</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M39" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>29</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="4">
-        <v>5</v>
-      </c>
-      <c r="D40" s="4">
-        <v>5</v>
-      </c>
-      <c r="E40" s="4">
-        <v>5</v>
-      </c>
-      <c r="F40" s="4">
-        <v>5</v>
-      </c>
-      <c r="G40" s="4">
-        <v>5</v>
-      </c>
-      <c r="H40" s="5">
-        <v>5</v>
-      </c>
-      <c r="I40" s="5">
-        <v>5</v>
-      </c>
-      <c r="J40" s="4">
-        <v>2</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M40" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>29</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="4">
-        <v>5</v>
-      </c>
-      <c r="D41" s="4">
-        <v>5</v>
-      </c>
-      <c r="E41" s="4">
-        <v>5</v>
-      </c>
-      <c r="F41" s="4">
-        <v>5</v>
-      </c>
-      <c r="G41" s="4">
-        <v>5</v>
-      </c>
-      <c r="H41" s="5">
-        <v>5</v>
-      </c>
-      <c r="I41" s="5">
-        <v>5</v>
-      </c>
-      <c r="J41" s="4">
-        <v>2</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M41" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>29</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="4">
-        <v>5</v>
-      </c>
-      <c r="D42" s="4">
-        <v>5</v>
-      </c>
-      <c r="E42" s="4">
-        <v>5</v>
-      </c>
-      <c r="F42" s="4">
-        <v>5</v>
-      </c>
-      <c r="G42" s="4">
-        <v>5</v>
-      </c>
-      <c r="H42" s="5">
-        <v>5</v>
-      </c>
-      <c r="I42" s="5">
-        <v>5</v>
-      </c>
-      <c r="J42" s="4">
-        <v>2</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M42" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>29</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="4">
-        <v>5</v>
-      </c>
-      <c r="D43" s="4">
-        <v>5</v>
-      </c>
-      <c r="E43" s="4">
-        <v>5</v>
-      </c>
-      <c r="F43" s="4">
-        <v>5</v>
-      </c>
-      <c r="G43" s="4">
-        <v>5</v>
-      </c>
-      <c r="H43" s="5">
-        <v>5</v>
-      </c>
-      <c r="I43" s="5">
-        <v>5</v>
-      </c>
-      <c r="J43" s="4">
-        <v>2</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M43" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>29</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="4">
-        <v>5</v>
-      </c>
-      <c r="D44" s="4">
-        <v>5</v>
-      </c>
-      <c r="E44" s="4">
-        <v>5</v>
-      </c>
-      <c r="F44" s="4">
-        <v>5</v>
-      </c>
-      <c r="G44" s="4">
-        <v>5</v>
-      </c>
-      <c r="H44" s="5">
-        <v>5</v>
-      </c>
-      <c r="I44" s="5">
-        <v>5</v>
-      </c>
-      <c r="J44" s="4">
-        <v>2</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M44" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>29</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="4">
-        <v>5</v>
-      </c>
-      <c r="D45" s="4">
-        <v>5</v>
-      </c>
-      <c r="E45" s="4">
-        <v>5</v>
-      </c>
-      <c r="F45" s="4">
-        <v>5</v>
-      </c>
-      <c r="G45" s="4">
-        <v>5</v>
-      </c>
-      <c r="H45" s="5">
-        <v>5</v>
-      </c>
-      <c r="I45" s="5">
-        <v>5</v>
-      </c>
-      <c r="J45" s="4">
-        <v>2</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M45" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>29</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="4">
-        <v>5</v>
-      </c>
-      <c r="D46" s="4">
-        <v>5</v>
-      </c>
-      <c r="E46" s="4">
-        <v>5</v>
-      </c>
-      <c r="F46" s="4">
-        <v>5</v>
-      </c>
-      <c r="G46" s="4">
-        <v>5</v>
-      </c>
-      <c r="H46" s="5">
-        <v>5</v>
-      </c>
-      <c r="I46" s="5">
-        <v>5</v>
-      </c>
-      <c r="J46" s="4">
-        <v>2</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M46" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>29</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="4">
-        <v>5</v>
-      </c>
-      <c r="D47" s="4">
-        <v>5</v>
-      </c>
-      <c r="E47" s="4">
-        <v>5</v>
-      </c>
-      <c r="F47" s="4">
-        <v>5</v>
-      </c>
-      <c r="G47" s="4">
-        <v>5</v>
-      </c>
-      <c r="H47" s="5">
-        <v>5</v>
-      </c>
-      <c r="I47" s="5">
-        <v>5</v>
-      </c>
-      <c r="J47" s="4">
-        <v>2</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M47" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>29</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="4">
-        <v>5</v>
-      </c>
-      <c r="D48" s="4">
-        <v>5</v>
-      </c>
-      <c r="E48" s="4">
-        <v>5</v>
-      </c>
-      <c r="F48" s="4">
-        <v>5</v>
-      </c>
-      <c r="G48" s="4">
-        <v>5</v>
-      </c>
-      <c r="H48" s="5">
-        <v>5</v>
-      </c>
-      <c r="I48" s="5">
-        <v>5</v>
-      </c>
-      <c r="J48" s="4">
-        <v>2</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M48" s="8">
-        <v>5</v>
-      </c>
+      <c r="O32" s="13">
+        <v>5</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="4"/>
+      <c r="M33" s="8"/>
+      <c r="O33" s="13"/>
+    </row>
+    <row r="34" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="4"/>
+      <c r="M34" s="8"/>
+      <c r="O34" s="13"/>
+    </row>
+    <row r="35" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="4"/>
+      <c r="M35" s="8"/>
+      <c r="O35" s="13"/>
+    </row>
+    <row r="36" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="4"/>
+      <c r="M36" s="8"/>
+      <c r="O36" s="13"/>
+    </row>
+    <row r="37" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="4"/>
+      <c r="M37" s="8"/>
+      <c r="O37" s="13"/>
+    </row>
+    <row r="38" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="4"/>
+      <c r="M38" s="8"/>
+      <c r="O38" s="13"/>
+    </row>
+    <row r="39" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="4"/>
+      <c r="M39" s="8"/>
+      <c r="O39" s="13"/>
+    </row>
+    <row r="40" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="4"/>
+      <c r="M40" s="8"/>
+      <c r="O40" s="13"/>
+    </row>
+    <row r="41" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="4"/>
+      <c r="M41" s="8"/>
+      <c r="O41" s="13"/>
+    </row>
+    <row r="42" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="4"/>
+      <c r="M42" s="8"/>
+    </row>
+    <row r="43" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="4"/>
+      <c r="M43" s="8"/>
+    </row>
+    <row r="44" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="4"/>
+      <c r="M44" s="8"/>
+    </row>
+    <row r="45" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="4"/>
+      <c r="M45" s="8"/>
+    </row>
+    <row r="46" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="4"/>
+      <c r="M46" s="8"/>
+    </row>
+    <row r="47" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="4"/>
+      <c r="M47" s="8"/>
+    </row>
+    <row r="48" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="4"/>
+      <c r="M48" s="8"/>
     </row>
     <row r="49" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>29</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="4">
-        <v>5</v>
-      </c>
-      <c r="D49" s="4">
-        <v>5</v>
-      </c>
-      <c r="E49" s="4">
-        <v>5</v>
-      </c>
-      <c r="F49" s="4">
-        <v>5</v>
-      </c>
-      <c r="G49" s="4">
-        <v>5</v>
-      </c>
-      <c r="H49" s="5">
-        <v>5</v>
-      </c>
-      <c r="I49" s="5">
-        <v>5</v>
-      </c>
-      <c r="J49" s="4">
-        <v>2</v>
-      </c>
-      <c r="L49">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M49" s="8">
-        <v>5</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="4"/>
+      <c r="M49" s="8"/>
     </row>
     <row r="50" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>29</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="4">
-        <v>5</v>
-      </c>
-      <c r="D50" s="4">
-        <v>5</v>
-      </c>
-      <c r="E50" s="4">
-        <v>5</v>
-      </c>
-      <c r="F50" s="4">
-        <v>5</v>
-      </c>
-      <c r="G50" s="4">
-        <v>5</v>
-      </c>
-      <c r="H50" s="5">
-        <v>5</v>
-      </c>
-      <c r="I50" s="5">
-        <v>5</v>
-      </c>
-      <c r="J50" s="4">
-        <v>2</v>
-      </c>
-      <c r="L50">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="M50" s="8">
-        <v>5</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="4"/>
+      <c r="M50" s="8"/>
     </row>
     <row r="51" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>29</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="4">
-        <v>5</v>
-      </c>
-      <c r="D51" s="4">
-        <v>5</v>
-      </c>
-      <c r="E51" s="4">
-        <v>5</v>
-      </c>
-      <c r="F51" s="4">
-        <v>5</v>
-      </c>
-      <c r="G51" s="4">
-        <v>5</v>
-      </c>
-      <c r="H51" s="5">
-        <v>5</v>
-      </c>
-      <c r="I51" s="5">
-        <v>5</v>
-      </c>
-      <c r="J51" s="4">
-        <v>2</v>
-      </c>
-      <c r="L51">
-        <f t="shared" ref="L51:L64" si="1">SUM(C51:J51)</f>
-        <v>37</v>
-      </c>
-      <c r="M51" s="8">
-        <v>5</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="4"/>
+      <c r="M51" s="8"/>
     </row>
     <row r="52" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>29</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="4">
-        <v>5</v>
-      </c>
-      <c r="D52" s="4">
-        <v>5</v>
-      </c>
-      <c r="E52" s="4">
-        <v>5</v>
-      </c>
-      <c r="F52" s="4">
-        <v>5</v>
-      </c>
-      <c r="G52" s="4">
-        <v>5</v>
-      </c>
-      <c r="H52" s="5">
-        <v>5</v>
-      </c>
-      <c r="I52" s="5">
-        <v>5</v>
-      </c>
-      <c r="J52" s="4">
-        <v>2</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="M52" s="8">
-        <v>5</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="4"/>
+      <c r="M52" s="8"/>
     </row>
     <row r="53" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>29</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="4">
-        <v>5</v>
-      </c>
-      <c r="D53" s="4">
-        <v>5</v>
-      </c>
-      <c r="E53" s="4">
-        <v>5</v>
-      </c>
-      <c r="F53" s="4">
-        <v>5</v>
-      </c>
-      <c r="G53" s="4">
-        <v>5</v>
-      </c>
-      <c r="H53" s="5">
-        <v>5</v>
-      </c>
-      <c r="I53" s="5">
-        <v>5</v>
-      </c>
-      <c r="J53" s="4">
-        <v>2</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="M53" s="8">
-        <v>5</v>
-      </c>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="4"/>
+      <c r="M53" s="8"/>
     </row>
     <row r="54" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>29</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="4">
-        <v>5</v>
-      </c>
-      <c r="D54" s="4">
-        <v>5</v>
-      </c>
-      <c r="E54" s="4">
-        <v>5</v>
-      </c>
-      <c r="F54" s="4">
-        <v>5</v>
-      </c>
-      <c r="G54" s="4">
-        <v>5</v>
-      </c>
-      <c r="H54" s="5">
-        <v>5</v>
-      </c>
-      <c r="I54" s="5">
-        <v>5</v>
-      </c>
-      <c r="J54" s="4">
-        <v>2</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="M54" s="8">
-        <v>5</v>
-      </c>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="4"/>
+      <c r="M54" s="8"/>
     </row>
     <row r="55" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>29</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="4">
-        <v>5</v>
-      </c>
-      <c r="D55" s="4">
-        <v>5</v>
-      </c>
-      <c r="E55" s="4">
-        <v>5</v>
-      </c>
-      <c r="F55" s="4">
-        <v>5</v>
-      </c>
-      <c r="G55" s="4">
-        <v>5</v>
-      </c>
-      <c r="H55" s="5">
-        <v>5</v>
-      </c>
-      <c r="I55" s="5">
-        <v>5</v>
-      </c>
-      <c r="J55" s="4">
-        <v>2</v>
-      </c>
-      <c r="L55">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="M55" s="8">
-        <v>5</v>
-      </c>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="4"/>
+      <c r="M55" s="8"/>
     </row>
     <row r="56" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>29</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="4">
-        <v>5</v>
-      </c>
-      <c r="D56" s="4">
-        <v>5</v>
-      </c>
-      <c r="E56" s="4">
-        <v>5</v>
-      </c>
-      <c r="F56" s="4">
-        <v>5</v>
-      </c>
-      <c r="G56" s="4">
-        <v>5</v>
-      </c>
-      <c r="H56" s="5">
-        <v>5</v>
-      </c>
-      <c r="I56" s="5">
-        <v>5</v>
-      </c>
-      <c r="J56" s="4">
-        <v>2</v>
-      </c>
-      <c r="L56">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="M56" s="8">
-        <v>5</v>
-      </c>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="4"/>
+      <c r="M56" s="8"/>
     </row>
     <row r="57" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>29</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="4">
-        <v>5</v>
-      </c>
-      <c r="D57" s="4">
-        <v>5</v>
-      </c>
-      <c r="E57" s="4">
-        <v>5</v>
-      </c>
-      <c r="F57" s="4">
-        <v>5</v>
-      </c>
-      <c r="G57" s="4">
-        <v>5</v>
-      </c>
-      <c r="H57" s="5">
-        <v>5</v>
-      </c>
-      <c r="I57" s="5">
-        <v>5</v>
-      </c>
-      <c r="J57" s="4">
-        <v>2</v>
-      </c>
-      <c r="L57">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="M57" s="8">
-        <v>5</v>
-      </c>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="4"/>
+      <c r="M57" s="8"/>
     </row>
     <row r="58" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>29</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="4">
-        <v>5</v>
-      </c>
-      <c r="D58" s="4">
-        <v>5</v>
-      </c>
-      <c r="E58" s="4">
-        <v>5</v>
-      </c>
-      <c r="F58" s="4">
-        <v>5</v>
-      </c>
-      <c r="G58" s="4">
-        <v>5</v>
-      </c>
-      <c r="H58" s="5">
-        <v>5</v>
-      </c>
-      <c r="I58" s="5">
-        <v>5</v>
-      </c>
-      <c r="J58" s="4">
-        <v>2</v>
-      </c>
-      <c r="L58">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="M58" s="8">
-        <v>5</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="4"/>
+      <c r="M58" s="8"/>
     </row>
     <row r="59" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>29</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="4">
-        <v>5</v>
-      </c>
-      <c r="D59" s="4">
-        <v>5</v>
-      </c>
-      <c r="E59" s="4">
-        <v>5</v>
-      </c>
-      <c r="F59" s="4">
-        <v>5</v>
-      </c>
-      <c r="G59" s="4">
-        <v>5</v>
-      </c>
-      <c r="H59" s="5">
-        <v>5</v>
-      </c>
-      <c r="I59" s="5">
-        <v>5</v>
-      </c>
-      <c r="J59" s="4">
-        <v>2</v>
-      </c>
-      <c r="L59">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="M59" s="8">
-        <v>5</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="4"/>
+      <c r="M59" s="8"/>
     </row>
     <row r="60" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>29</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="4">
-        <v>5</v>
-      </c>
-      <c r="D60" s="4">
-        <v>5</v>
-      </c>
-      <c r="E60" s="4">
-        <v>5</v>
-      </c>
-      <c r="F60" s="4">
-        <v>5</v>
-      </c>
-      <c r="G60" s="4">
-        <v>5</v>
-      </c>
-      <c r="H60" s="5">
-        <v>5</v>
-      </c>
-      <c r="I60" s="5">
-        <v>5</v>
-      </c>
-      <c r="J60" s="4">
-        <v>2</v>
-      </c>
-      <c r="L60">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="M60" s="8">
-        <v>5</v>
-      </c>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="4"/>
+      <c r="M60" s="8"/>
     </row>
     <row r="61" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>29</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="4">
-        <v>5</v>
-      </c>
-      <c r="D61" s="4">
-        <v>5</v>
-      </c>
-      <c r="E61" s="4">
-        <v>5</v>
-      </c>
-      <c r="F61" s="4">
-        <v>5</v>
-      </c>
-      <c r="G61" s="4">
-        <v>5</v>
-      </c>
-      <c r="H61" s="5">
-        <v>5</v>
-      </c>
-      <c r="I61" s="5">
-        <v>5</v>
-      </c>
-      <c r="J61" s="4">
-        <v>2</v>
-      </c>
-      <c r="L61">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="M61" s="8">
-        <v>5</v>
-      </c>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="4"/>
+      <c r="M61" s="8"/>
     </row>
     <row r="62" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>29</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="4">
-        <v>5</v>
-      </c>
-      <c r="D62" s="4">
-        <v>5</v>
-      </c>
-      <c r="E62" s="4">
-        <v>5</v>
-      </c>
-      <c r="F62" s="4">
-        <v>5</v>
-      </c>
-      <c r="G62" s="4">
-        <v>5</v>
-      </c>
-      <c r="H62" s="5">
-        <v>5</v>
-      </c>
-      <c r="I62" s="5">
-        <v>5</v>
-      </c>
-      <c r="J62" s="4">
-        <v>2</v>
-      </c>
-      <c r="L62">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="M62" s="8">
-        <v>5</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="4"/>
+      <c r="M62" s="8"/>
     </row>
     <row r="63" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>29</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="4">
-        <v>5</v>
-      </c>
-      <c r="D63" s="4">
-        <v>5</v>
-      </c>
-      <c r="E63" s="4">
-        <v>5</v>
-      </c>
-      <c r="F63" s="4">
-        <v>5</v>
-      </c>
-      <c r="G63" s="4">
-        <v>5</v>
-      </c>
-      <c r="H63" s="5">
-        <v>5</v>
-      </c>
-      <c r="I63" s="5">
-        <v>5</v>
-      </c>
-      <c r="J63" s="4">
-        <v>2</v>
-      </c>
-      <c r="L63">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="M63" s="8">
-        <v>5</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="4"/>
+      <c r="M63" s="8"/>
     </row>
     <row r="64" spans="1:13" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>29</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="4">
-        <v>5</v>
-      </c>
-      <c r="D64" s="4">
-        <v>5</v>
-      </c>
-      <c r="E64" s="4">
-        <v>5</v>
-      </c>
-      <c r="F64" s="4">
-        <v>5</v>
-      </c>
-      <c r="G64" s="4">
-        <v>5</v>
-      </c>
-      <c r="H64" s="5">
-        <v>5</v>
-      </c>
-      <c r="I64" s="5">
-        <v>5</v>
-      </c>
-      <c r="J64" s="4">
-        <v>2</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="M64" s="8">
-        <v>5</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="4"/>
+      <c r="M64" s="8"/>
     </row>
     <row r="65" ht="13" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/2ИСИП-822_ТерВер.xlsx
+++ b/2ИСИП-822_ТерВер.xlsx
@@ -583,13 +583,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomRight" activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -599,12 +599,12 @@
     <col min="3" max="10" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>30</v>
       </c>
@@ -639,7 +639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>39</v>
       </c>
@@ -667,8 +667,20 @@
       <c r="J3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>3</v>
+      </c>
+      <c r="T3">
+        <v>4</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -713,8 +725,24 @@
         <f>O4-M4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R4">
+        <f>IF(R$3=$M4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:U19" si="0">IF(S$3=$M4,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -746,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L32" si="0">SUM(C5:J5)</f>
+        <f t="shared" ref="L5:L32" si="1">SUM(C5:J5)</f>
         <v>40</v>
       </c>
       <c r="M5" s="8">
@@ -756,11 +784,27 @@
         <v>5</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P32" si="1">O5-M5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="P5:P32" si="2">O5-M5</f>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:U32" si="3">IF(R$3=$M5,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -792,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M6" s="8">
@@ -802,11 +846,27 @@
         <v>5</v>
       </c>
       <c r="P6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -838,7 +898,7 @@
         <v>5</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M7" s="8">
@@ -848,43 +908,59 @@
         <v>5</v>
       </c>
       <c r="P7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="6">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>5</v>
+      </c>
+      <c r="J8" s="4">
+        <v>5</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4">
-        <v>5</v>
-      </c>
-      <c r="H8" s="6">
-        <v>5</v>
-      </c>
-      <c r="I8" s="7">
-        <v>5</v>
-      </c>
-      <c r="J8" s="4">
-        <v>5</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="M8" s="8">
@@ -894,11 +970,27 @@
         <v>5</v>
       </c>
       <c r="P8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -930,7 +1022,7 @@
         <v>5</v>
       </c>
       <c r="L9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M9" s="8">
@@ -940,11 +1032,27 @@
         <v>5</v>
       </c>
       <c r="P9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -976,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="L10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M10" s="8">
@@ -986,11 +1094,27 @@
         <v>5</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1022,7 +1146,7 @@
         <v>3</v>
       </c>
       <c r="L11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="M11" s="8">
@@ -1032,11 +1156,27 @@
         <v>4</v>
       </c>
       <c r="P11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1068,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="L12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M12" s="8">
@@ -1078,11 +1218,27 @@
         <v>5</v>
       </c>
       <c r="P12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1114,7 +1270,7 @@
         <v>2</v>
       </c>
       <c r="L13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="M13" s="8">
@@ -1124,11 +1280,27 @@
         <v>4</v>
       </c>
       <c r="P13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1160,7 +1332,7 @@
         <v>5</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M14" s="8">
@@ -1170,11 +1342,27 @@
         <v>5</v>
       </c>
       <c r="P14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1206,7 +1394,7 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="M15" s="8">
@@ -1216,11 +1404,27 @@
         <v>4</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1252,7 +1456,7 @@
         <v>5</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M16" s="8">
@@ -1262,11 +1466,27 @@
         <v>5</v>
       </c>
       <c r="P16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1298,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="M17" s="8">
@@ -1308,11 +1528,27 @@
         <v>4</v>
       </c>
       <c r="P17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1344,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="L18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="M18" s="8">
@@ -1354,11 +1590,27 @@
         <v>4</v>
       </c>
       <c r="P18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1390,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M19" s="8">
@@ -1400,11 +1652,27 @@
         <v>4</v>
       </c>
       <c r="P19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1436,7 +1704,7 @@
         <v>5</v>
       </c>
       <c r="L20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M20" s="8">
@@ -1446,11 +1714,27 @@
         <v>5</v>
       </c>
       <c r="P20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1482,7 +1766,7 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="M21" s="8">
@@ -1492,11 +1776,27 @@
         <v>5</v>
       </c>
       <c r="P21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1528,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="L22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M22" s="8">
@@ -1538,11 +1838,27 @@
         <v>5</v>
       </c>
       <c r="P22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1574,7 +1890,7 @@
         <v>5</v>
       </c>
       <c r="L23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M23" s="8">
@@ -1584,11 +1900,27 @@
         <v>5</v>
       </c>
       <c r="P23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1621,7 +1953,7 @@
       </c>
       <c r="K24" s="12"/>
       <c r="L24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="M24" s="8">
@@ -1629,11 +1961,27 @@
       </c>
       <c r="O24" s="13"/>
       <c r="P24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1665,7 +2013,7 @@
         <v>2</v>
       </c>
       <c r="L25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="M25" s="8">
@@ -1675,11 +2023,27 @@
         <v>4</v>
       </c>
       <c r="P25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1711,7 +2075,7 @@
         <v>5</v>
       </c>
       <c r="L26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M26" s="8">
@@ -1721,11 +2085,27 @@
         <v>5</v>
       </c>
       <c r="P26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1757,7 +2137,7 @@
         <v>5</v>
       </c>
       <c r="L27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M27" s="8">
@@ -1767,11 +2147,27 @@
         <v>5</v>
       </c>
       <c r="P27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1803,7 +2199,7 @@
         <v>5</v>
       </c>
       <c r="L28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M28" s="8">
@@ -1813,11 +2209,27 @@
         <v>5</v>
       </c>
       <c r="P28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1849,7 +2261,7 @@
         <v>5</v>
       </c>
       <c r="L29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M29" s="8">
@@ -1859,11 +2271,27 @@
         <v>5</v>
       </c>
       <c r="P29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -1895,7 +2323,7 @@
         <v>2</v>
       </c>
       <c r="L30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="M30" s="8">
@@ -1905,11 +2333,27 @@
         <v>4</v>
       </c>
       <c r="P30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -1941,7 +2385,7 @@
         <v>5</v>
       </c>
       <c r="L31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M31" s="8">
@@ -1951,11 +2395,27 @@
         <v>5</v>
       </c>
       <c r="P31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -1987,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="L32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M32" s="8">
@@ -1997,8 +2457,24 @@
         <v>5</v>
       </c>
       <c r="P32">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2430,6 +2906,18 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="C4:J23 M4:M50 C25:J50 C24">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L50">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -2441,7 +2929,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L50">
+  <conditionalFormatting sqref="M51:M64 C51:J64">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2453,7 +2941,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M51:M64 C51:J64">
+  <conditionalFormatting sqref="L51:L64">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -2465,7 +2953,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51:L64">
+  <conditionalFormatting sqref="R4:U32">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/2ИСИП-822_ТерВер.xlsx
+++ b/2ИСИП-822_ТерВер.xlsx
@@ -586,10 +586,10 @@
   <dimension ref="A1:U65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T11" sqref="T11"/>
+      <selection pane="bottomRight" activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2477,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="4"/>
@@ -2491,7 +2491,7 @@
       <c r="M33" s="8"/>
       <c r="O33" s="13"/>
     </row>
-    <row r="34" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="4"/>
@@ -2504,8 +2504,20 @@
       <c r="J34" s="4"/>
       <c r="M34" s="8"/>
       <c r="O34" s="13"/>
-    </row>
-    <row r="35" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+      <c r="T34">
+        <v>4</v>
+      </c>
+      <c r="U34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="4"/>
@@ -2519,7 +2531,7 @@
       <c r="M35" s="8"/>
       <c r="O35" s="13"/>
     </row>
-    <row r="36" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="4"/>
@@ -2532,8 +2544,24 @@
       <c r="J36" s="4"/>
       <c r="M36" s="8"/>
       <c r="O36" s="13"/>
-    </row>
-    <row r="37" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R36">
+        <f>SUM(R4:R32)</f>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f t="shared" ref="S36:U36" si="4">SUM(S4:S32)</f>
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="4"/>
@@ -2547,7 +2575,7 @@
       <c r="M37" s="8"/>
       <c r="O37" s="13"/>
     </row>
-    <row r="38" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="4"/>
@@ -2561,7 +2589,7 @@
       <c r="M38" s="8"/>
       <c r="O38" s="13"/>
     </row>
-    <row r="39" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="4"/>
@@ -2575,7 +2603,7 @@
       <c r="M39" s="8"/>
       <c r="O39" s="13"/>
     </row>
-    <row r="40" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="4"/>
@@ -2589,7 +2617,7 @@
       <c r="M40" s="8"/>
       <c r="O40" s="13"/>
     </row>
-    <row r="41" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="4"/>
@@ -2603,7 +2631,7 @@
       <c r="M41" s="8"/>
       <c r="O41" s="13"/>
     </row>
-    <row r="42" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="4"/>
@@ -2616,7 +2644,7 @@
       <c r="J42" s="4"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="4"/>
@@ -2629,7 +2657,7 @@
       <c r="J43" s="4"/>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="4"/>
@@ -2642,7 +2670,7 @@
       <c r="J44" s="4"/>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="4"/>
@@ -2655,7 +2683,7 @@
       <c r="J45" s="4"/>
       <c r="M45" s="8"/>
     </row>
-    <row r="46" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="4"/>
@@ -2668,7 +2696,7 @@
       <c r="J46" s="4"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="4"/>
@@ -2681,7 +2709,7 @@
       <c r="J47" s="4"/>
       <c r="M47" s="8"/>
     </row>
-    <row r="48" spans="1:15" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="4"/>
